--- a/ответы/submission_hacken4221.xlsx
+++ b/ответы/submission_hacken4221.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Отразить план работы ТС можно в виде составной таблицы, где указываются плановый объем работы ТС для каждого объекта в количественной или суммовой оценке. Это делается в табличной части документа, который можно заполнить вручную или автоматически с помощью помощника планирования. Также важно правильно заполнить реквизиты в шапке документа. &lt;</t>
+          <t>Отразить план работы ТС можно через составление таблицы, где указываются плановый объем работы ТС в количественной (выработка ТС) или суммовой (предоставляемые услуги) оценке для каждого объекта. Это делается в табличной части документа "Планирование работы ТС", который можно создать в системе, выбрав соответствующий объект и нажав на кнопку создания нового документа. Также можно использовать помощника планирования для автоматического заполнения данных. В шапке документа должны быть заполнены реквизиты. &lt;</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Сгенерируйте платежное поручение через систему банка или специализированную программу для управления финансами. Например, через интернет-банк или мобильное приложение банка. Платежное поручение можно также создать в электронной системе налоговой службы или других государственных сервисах. Подробности могут отличаться в зависимости от конкретного банка и страны. Используйте официальные ресурсы банковских учреждений и государственных органов для получения точных инструкций. |&lt;</t>
+          <t>Создайте платежное поручение через систему банка или используя специализированные программные продукты для управления финансами. Подробнее см. рисунок 12. Создание документа «Начислени я по кредитам и депозитам». Если у вас возникнут дополнительные вопросы, пожалуйста, уточните их. &lt;</t>
         </is>
       </c>
     </row>
@@ -540,13 +540,12 @@
       <c r="F4" t="inlineStr">
         <is>
           <t>Для выполнения переоценки валютных договоров ДЦИ необходимо провести следующие шаги:
-1. **Отражение расчета КСГ** - рассчитать курсовая стоимость групповой валюты (КСГ) для всех валютных договоров ДЦИ.
-2. **Формирование доходов и расходов по договорам ДЦИ** - пересчитать доходы и расходы по каждому договору ДЦИ, учитывая новую КСГ.
-3. **Реализация работ с типом "Частичное признание" по договорам ДЦИ** - применить корректировки к уже учтенным доходам и расходам, если это требуется.
-4. **Корректировка реализации работ с типом "Частичное признание" по договорам ДЦИ** - повторно пересчитать результаты после внесения изменений.
-5. **Реализация работ с типом "Акт выполненных работ" по договорам ДЦИ** - применить новые данные о доходах и расходах к актуализированным данным.
-6. **Корректировка реализации работ с типом "Акт выполненных работ" по договорам ДЦИ** - проверить правильность данных после применения новых значений.
-7. **Переоценка валютных договоров ДЦИ: вы</t>
+1. **Отражение расчета КСГ**: Провести расчет курсовой стоимости гривны (КСГ) для всех необходимых дат.
+2. **Формирование доходов и расходов по договорам ДЦИ**: Сформулировать доходы и расходы по всем договорам ДЦИ, учитывая актуальные курсы обмена валют.
+3. **Реализация работ с типом «Частичное признание» по договорам ДЦИ**: Применять метод частичного признания для учета результатов работы по договорам ДЦИ, используя актуальные курсы обмена валют.
+4. **Корректировка реализации работ с типом «Частичное признание» по договорам ДЦИ**: Выполнить корректировку уже учтенных данных, если произошли изменения в курсах обмена валют.
+5. **Реализация работ с типом «Акт выполненных работ» по договорам ДЦИ**: Учесть фактические результаты выполненных работ по договорам ДЦИ, используя актуальные курсы обмена валют.
+6. **Корректировка реализации работ с типом «Акт выполненных работ» по договорам Д</t>
         </is>
       </c>
     </row>
@@ -572,7 +571,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Привет! Я Сайга, твой автоматический помощник. Похоже, у тебя возникли проблемы с проверкой сделки в ЕОСДО. Это связано с ошибками при согласовании документов. Попробуй обратиться в техническую поддержку или убедись, что все реквизиты правильно заполнены. Если это поможет, давай обсудим подробнее! Как я могу тебе помочь дальше? &lt;</t>
+          <t>Привет! Я здесь, чтобы помочь тебе с твоим вопросом. Похоже, у тебя возникли проблемы с проверкой сделки в ЕОСДО. Давай разберемся по шагам:
+1. **Проверь корректность заполнения реквизитов**:
+   - "Реестровой номер"
+   - "Вид документа основания"
+   - "Контрагент"
+   - "Дата договора"
+2. **Обращение в техническую поддержку**:
+   - Если проблема связана с системными ошибками или неправильной настройкой, лучше всего обратиться за помощью к специалистам.
+3. **Попробуй снова после обновления системы**:
+   - Иногда просто нужно перезагрузить страницу или систему, чтобы все работало как надо.
+Если это не поможет, возможно стоит проконсультироваться с вашей бухгалтерской службой или IT-специалистами. Надеюсь, эти советы помогут решить твою проблему! Как я могу чем-то еще помочь? &lt;</t>
         </is>
       </c>
     </row>
@@ -599,10 +608,10 @@
       <c r="F6" t="inlineStr">
         <is>
           <t>В системе для настройки действий при превышении резервов доступны следующие варианты:
-1. Блокировать проведение документов;
-2. Информировать;
-3. Не использовать.
-Выбор варианта зависит от политики управления финансами организации и требований к контроллю расходов. Например, если организация хочет предотвратить непредвиденные расходы, может быть выбран вариант "блокировать проведение документов". Если же важно информировать сотрудников о превышении резервов без ограничений, можно выбрать "информировать".&lt;</t>
+1. **Блокировать проведение документов** - блокирует возможность проведения новых документов до тех пор, пока не будут выполнены необходимые корректировки.
+2. **Информировать** - информирует пользователя о превышении резерва, но позволяет продолжать работу без ограничений.
+3. **Не использовать** - игнорирует превышение резерва и не предпринимает никаких мер.
+Выбор одного из этих вариантов зависит от политики управления ресурсами вашего предприятия и требований к контроллю затрат. &lt;</t>
         </is>
       </c>
     </row>
@@ -628,7 +637,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Отразить возврат денег в кассе можно через договор возврата, где указывается группа финансовой учёты расчетов. Также нужно заполнить статью ДДС, ставку НДС, сумму взаиморасчетов и валюту. Все данные должны быть подставлены автоматически из вкладки "Основное".&lt;</t>
+          <t>Отразить возврат денег в кассе можно через договор возврата. В этом договоре указывается группа финансовой учёты расчетов, которая подставляется автоматически. Также необходимо заполнить статью ДДС, ставку НДС, сумму взаиморасчетов и валюту. Все эти данные подставляются автоматически из вкладки "Основное".&lt;</t>
         </is>
       </c>
     </row>
@@ -654,7 +663,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Для подписания документа приемки ТМЦ без сертификата УКЭП используйте роль «Подписант УНЭП». Откройте форму ввода авторизационных данных и проверьте заполненный логин. Затем введите пароль учетной записи в Active Directory, используемый при входе в ЕОСДО. Это должен быть тот же пароль, что используется подписантом при входе в ЕОСДО. После этого вы сможете подписать документ приемки ТМЦ с использованием УНЭП. &lt;</t>
+          <t>Для подписания документа приемка ТМЦ без сертификата УКЭП используйте роль «Подписант УНЭП». Откройте форму подписания, проверьте введенные данные и введите пароль активной учетной записи в Active Directory. Это тот же пароль, который используется при входе в ЕОСДО. Если все правильно, будет отображено сообщение о подписании. &lt;</t>
         </is>
       </c>
     </row>
@@ -681,10 +690,10 @@
       <c r="F9" t="inlineStr">
         <is>
           <t>Для детального анализа книг покупок и продаж используются следующие отчеты:
-1. Отчет по движению активов;
-2. Отчет по финансовой деятельности;
-3. Отчет о прибылях и убытках.
-Эти отчеты помогают выявлять тенденции и изменения в работе компании по управлению запасами, планированию закупок и реализации товаров. Они также могут использоваться для контроля за эффективностью использования средств предприятия и принятия управленческих решений. &lt;</t>
+1) Сальдо по счетам-фактурам;
+2) Сальдо по книге покупок;
+3) Сальдо по книге продаж.
+Эти отчеты помогают выявлять остатки товаров, определить их стоимость и составить план дальнейших действий по управлению запасами. &lt;</t>
         </is>
       </c>
     </row>
@@ -710,7 +719,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Колонка "Встречная задолженность" в документе Начисление и списание резервов по сомнительным долгам отражает сумму, которую должник должен вернуть вам после того, как вы уже начислили ему резерв по сомнительному долгу. Это означает, что у вас есть активные обязательства перед этим должником. &lt;</t>
+          <t>Колонка "Встречная задолженность" в документе "Начисление и списание резервов по сомнительным долгам" отражает сумму, которую должник должен вернуть вам после начисления и списания резервов по сомнительным долгам. Это означает, что у вас есть активные обязательства перед другим лицом, которые должны быть погашены после того, как будет произведено начисление и списание резервов по сомнительным долгам. &lt;</t>
         </is>
       </c>
     </row>
@@ -736,7 +745,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Инвентаризационная опись сформировалась без разбивки по подразделениям потому что флаг по подразделению не был установлен. Это указано в тексте: "Если флаг по подразделению не будет установлен, то инвентаризационная опись сформируется в целом, по объектам выбранных счетов, без разбивки по подразделениям".&lt;</t>
+          <t>Инвентаризационная опись сформировалась без разбивки по подразделениям потому что флаг по подразделению не был установлен для одного из выбранных счетов инвентаризации. Это указано в разделе "Структура предприятия".&lt;</t>
         </is>
       </c>
     </row>
@@ -762,15 +771,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Возможные причины получения уведомлений о закрытии договоров обеспечения могут включать следующие пункты:
-1. **Просроченная оплата**: Неуплаченные платежи по договору обеспечения могут привести к его закрытию.
-2. **Отказ одного из участников**: Один из сторон договора обеспечения может отказаться от него, что также приведет к его закрытию.
-3. **Закрытие юридического лица**: Если одна из сторон является юридическим лицом, которое было ликвидировано или приостановлено деятельность, то договор обеспечения может быть автоматически закрыт.
-4. **Изменение условий**: Изменение условий договора обеспечения может потребовать его пересмотра или закрытия.
-5. **Ошибка в системе**: Иногда технические ошибки в системах управления договорами могут привести к неправильному статусу договора.
-6. **Расход средств**: Договор обеспечения может быть закрыт, если средства, заложенные в качестве обеспечительной меры, были полностью использованы.
-7. **Срок действия**: У некоторых видов договоров обеспечения установлен определенный срок действия, после которого они автоматически закрываются.
-Для уточнения причин закрытия конкретных договоров обеспечения рекомендуется обратиться в службу поддержки или соответствующие отделы организации.</t>
+          <t>Вам пришли уведомления о закрытии договоров обеспечения из-за того, что автоматическое создание электронной сделки в ЕОСДО было прервано или отменено. Это произошло из-за контроля действий, который проверяет соответствие документации и подписей. Если документ был уже подписан по ЭДО, повторное подписание и утверждение невозможно. Решите проблему нажатием кнопок "Да" или "Нет", как описано выше. Если возникнут сложности, обратитесь за помощью в техническую поддержку. &lt;</t>
         </is>
       </c>
     </row>
@@ -796,7 +797,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>В Приобретении товаров и услуг в таблице 11 Приоритет аналитик, определяющих вид деятельности НДС отсутствует аналитика "Направление деятельности" для того, чтобы избежать двойного учета расходов по НДС при использовании этой аналитической информации для целевых финансирования, отраслевых резервов или других видов деятельности. Это позволяет точно учесть налоги без дополнительных сложностей. &lt;</t>
+          <t>В таблице 11 Приложения 2 Инструкции пользователям «D-1C1-1.10.14 Учет НДС» указано, что для Приобретения товаров и услуг приоритет аналитик не включает направления деятельности. Это означает, что данная аналитика не применяется для учета НДС по этому виду операций. &lt;</t>
         </is>
       </c>
     </row>
@@ -822,9 +823,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Для удаления элемента справочника "Номенклатура" из системы выполните следующие шаги:
-1. Откройте список элементов и найдите нужную вам запись.
-2. Нажмите правую кнопку мыши на выбранной записи и выберите команду "Удалить".&lt;</t>
+          <t>Чтобы удалить элемент справочника "Номенклатура" из системы, выполните следующие шаги:
+1. Откройте список элементов и найдите нужный элемент справочника "Номенклатура".
+2. Выделите этот элемент правой кнопкой мыши.
+3. В открывшемся контекстном меню выберите команду "Удалить".
+После этого элемент будет удален из системы. Если у вас возникнут дополнительные вопросы или потребуется помощь, не стесняйтесь обращаться. &lt;</t>
         </is>
       </c>
     </row>
@@ -850,7 +853,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Префикс для международного номера банковского счета IBAN проставляется в формате BIC или SWIFT кода банка. Это необходимо указать при заполнении поля "Международный номер банковского счета IBAN" в карточке валютного счета получателя. Например, если BIC код банка равен "ABBBBEXXX", то префикс будет "ABBBBEX".&lt;</t>
+          <t>Префикс для международного номера банковского счета IBAN не следует ставить в счетах-фактурах. Префикс IBAN обычно указывается при формировании платежной информации или при вводе данных в электронные системы. В счетах-фактурах достаточно указать полное значение международного номера банковского счета без префикса. Например, если IBAN выглядит как "DE89370400434432013000", то в счете-фактуре можно просто указать это значение без добавления префикса "IBAN DE893".&lt;</t>
         </is>
       </c>
     </row>
@@ -876,7 +879,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Кнопка "Аналитика ЕПС" не активна в карточке номенклатуры из-за отсутствия соответствующей аналитической структуры или неправильной настройки приоритетов аналитик в таблице 11 Приложения 2 Инструкции пользователя D-1C1-1.10.14 по учету НДС. Проверьте правильность настроек и наличие необходимой аналитической структуры для активации этой функции. &lt;</t>
+          <t>Кнопка "Аналитика ЕПС" не активна в карточке номенклатуры из-за того, что приоритет аналитик, определяющих вид деятельности НДС, установлен как 2 или выше для данного вида ценности. Это указано в таблице 11 Приложения 2 Инструкции пользователя D-1C1-1.10.14 по учету НДС. Для активации этой функции необходимо изменить приоритет аналитик на значение 1. См. страницы 230-231 Инструкции. Версия 8. Автор: АО «Гринатом».&lt;</t>
         </is>
       </c>
     </row>
